--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B70A33-83AA-4918-B5CA-2242D00A78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CACCC-6C3F-479C-8DE0-924BB681F5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Dbt project initialization</t>
   </si>
   <si>
-    <t>Set up andPractice</t>
-  </si>
-  <si>
-    <t>Theory and pracitce</t>
-  </si>
-  <si>
     <t>Models</t>
   </si>
   <si>
@@ -376,6 +370,15 @@
   </si>
   <si>
     <t>Dagster orchestration toll</t>
+  </si>
+  <si>
+    <t>DBT Core - Topics</t>
+  </si>
+  <si>
+    <t>Set up and Practice</t>
+  </si>
+  <si>
+    <t>2pm-4pm</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -455,11 +458,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -476,6 +516,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,31 +840,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:F70"/>
+  <dimension ref="C2:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
@@ -918,7 +967,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -969,7 +1018,7 @@
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" s="10"/>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3">
         <v>45664</v>
@@ -1003,11 +1052,11 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="9" t="s">
-        <v>16</v>
+      <c r="C18" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3">
         <v>45665</v>
@@ -1017,9 +1066,9 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="9"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3">
         <v>45665</v>
@@ -1029,9 +1078,9 @@
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="9"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
         <v>45665</v>
@@ -1041,9 +1090,9 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="9"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
         <v>45666</v>
@@ -1053,9 +1102,9 @@
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="9"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3">
         <v>45666</v>
@@ -1065,9 +1114,9 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="9"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3">
         <v>45666</v>
@@ -1077,9 +1126,9 @@
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3">
         <v>45666</v>
@@ -1089,21 +1138,21 @@
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="6"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3">
         <v>45670</v>
       </c>
       <c r="F25" s="3">
-        <v>45670</v>
+        <v>45671</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="3">
         <v>45670</v>
@@ -1113,258 +1162,255 @@
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="6"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45671</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="12"/>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45671</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="12"/>
+      <c r="D29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="7">
-        <v>45671</v>
-      </c>
-      <c r="F27" s="7">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="E29" s="7">
+        <v>45672</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="12"/>
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="7">
-        <v>45671</v>
-      </c>
-      <c r="F28" s="7">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45671</v>
-      </c>
-      <c r="F29" s="7">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E30" s="7">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="F30" s="7">
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="6"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45673</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="12"/>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45673</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="13"/>
+      <c r="D33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="7">
-        <v>45672</v>
-      </c>
-      <c r="F31" s="7">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
+      <c r="E33" s="7">
+        <v>45673</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="7">
-        <v>45672</v>
-      </c>
-      <c r="F32" s="7">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="7">
-        <v>45672</v>
-      </c>
-      <c r="F33" s="7">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="7">
+        <v>45678</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45678</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="12"/>
+      <c r="D35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="7">
-        <v>45673</v>
-      </c>
-      <c r="F34" s="7">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="7">
+        <v>45678</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="12"/>
+      <c r="D36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="7">
-        <v>45673</v>
-      </c>
-      <c r="F35" s="7">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="7">
+        <v>45679</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="12"/>
+      <c r="D37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="7">
-        <v>45673</v>
-      </c>
-      <c r="F36" s="7">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="7">
+        <v>45679</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="12"/>
+      <c r="D38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="7">
-        <v>45673</v>
-      </c>
-      <c r="F37" s="7">
-        <v>45673</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="7">
+        <v>45680</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="12"/>
+      <c r="D39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="7">
-        <v>45677</v>
-      </c>
-      <c r="F38" s="7">
-        <v>45677</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="7">
+        <v>45680</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="12"/>
+      <c r="D40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45680</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="12"/>
+      <c r="D41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="7">
-        <v>45677</v>
-      </c>
-      <c r="F39" s="7">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="E41" s="7">
+        <v>45684</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="12"/>
+      <c r="D42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="7">
-        <v>45678</v>
-      </c>
-      <c r="F40" s="7">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="7">
-        <v>45679</v>
-      </c>
-      <c r="F41" s="7">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="7">
+        <v>45684</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="12"/>
+      <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="7">
-        <v>45679</v>
-      </c>
-      <c r="F42" s="7">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="7">
+        <v>45685</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="12"/>
+      <c r="D44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="7">
-        <v>45680</v>
-      </c>
-      <c r="F43" s="7">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="7">
+        <v>45685</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="12"/>
+      <c r="D45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="7">
-        <v>45681</v>
-      </c>
-      <c r="F44" s="7">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="7">
+        <v>45686</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="13"/>
+      <c r="D46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="7">
-        <v>45684</v>
-      </c>
-      <c r="F45" s="7">
-        <v>45685</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E46" s="7">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="F46" s="7">
-        <v>45686</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="7">
         <v>45687</v>
       </c>
-      <c r="F47" s="7">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
@@ -1452,15 +1498,12 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="C18:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,39 +1530,39 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1530,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6">
         <v>-45</v>
@@ -1545,10 +1588,10 @@
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1559,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>87</v>
@@ -1571,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1585,7 +1628,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>-98</v>
@@ -1594,16 +1637,16 @@
         <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1614,7 +1657,7 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>-34034</v>
@@ -1623,16 +1666,16 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1645,12 +1688,12 @@
         <v>98001</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>86730</v>
@@ -1659,7 +1702,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>34034</v>
@@ -1668,10 +1711,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1679,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1687,18 +1730,18 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1709,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>-98</v>
@@ -1718,13 +1761,13 @@
         <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.35">
@@ -1738,7 +1781,7 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.35">
@@ -1746,19 +1789,19 @@
         <v>98000</v>
       </c>
       <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
         <v>91</v>
       </c>
-      <c r="M22" t="s">
-        <v>93</v>
-      </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.35">
@@ -1766,7 +1809,7 @@
         <v>98001</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L23">
         <v>6738</v>
@@ -1775,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.35">
@@ -1792,29 +1835,29 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" t="s">
         <v>95</v>
       </c>
-      <c r="O24" t="s">
-        <v>97</v>
-      </c>
       <c r="P24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1823,7 +1866,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L30" s="2">
         <v>6738</v>
@@ -1832,21 +1875,21 @@
         <v>5</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="P30" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1863,7 +1906,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.35">
@@ -1881,7 +1924,7 @@
         <v>950328</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1897,13 +1940,13 @@
         <v>5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.35">
@@ -1921,7 +1964,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>-98</v>
@@ -1930,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.35">
@@ -1944,10 +1987,10 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.35">
@@ -1955,7 +1998,7 @@
         <v>98000</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.35">
@@ -1963,76 +2006,76 @@
         <v>98001</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2047,13 +2090,13 @@
         <v>5</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.35">
@@ -2069,7 +2112,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="12:16" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2CACCC-6C3F-479C-8DE0-924BB681F5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088274C-97B6-438C-8CA5-0D47C9412FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -378,7 +378,17 @@
     <t>Set up and Practice</t>
   </si>
   <si>
-    <t>2pm-4pm</t>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>1215-1330,
+1345-1400</t>
+  </si>
+  <si>
+    <t>1400-1600</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -403,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -507,10 +523,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -525,6 +543,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,27 +882,31 @@
     <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3">
@@ -880,10 +915,11 @@
       <c r="F3" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4" s="9"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3">
@@ -892,10 +928,11 @@
       <c r="F4" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" s="9"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3">
@@ -904,10 +941,11 @@
       <c r="F5" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3">
@@ -916,10 +954,11 @@
       <c r="F6" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" s="9"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3">
@@ -928,10 +967,11 @@
       <c r="F7" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" s="9"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3">
@@ -940,10 +980,11 @@
       <c r="F8" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9" s="9"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3">
@@ -952,10 +993,11 @@
       <c r="F9" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10" s="9"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3">
@@ -964,12 +1006,13 @@
       <c r="F10" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3">
@@ -978,10 +1021,11 @@
       <c r="F11" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" s="10"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3">
@@ -990,10 +1034,11 @@
       <c r="F12" s="3">
         <v>45663</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13" s="10"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3">
@@ -1002,10 +1047,11 @@
       <c r="F13" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" s="10"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3">
@@ -1014,10 +1060,11 @@
       <c r="F14" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C15" s="10"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="3">
@@ -1026,10 +1073,11 @@
       <c r="F15" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C16" s="10"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="3">
@@ -1038,10 +1086,11 @@
       <c r="F16" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="10"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3">
@@ -1050,12 +1099,13 @@
       <c r="F17" s="3">
         <v>45664</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
@@ -1064,10 +1114,11 @@
       <c r="F18" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="12"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="3">
@@ -1076,10 +1127,11 @@
       <c r="F19" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="12"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="3">
@@ -1088,10 +1140,11 @@
       <c r="F20" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" s="12"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="3">
@@ -1100,10 +1153,11 @@
       <c r="F21" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="12"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="3">
@@ -1112,10 +1166,11 @@
       <c r="F22" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="12"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="3">
@@ -1124,10 +1179,11 @@
       <c r="F23" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="12"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="3">
@@ -1136,10 +1192,11 @@
       <c r="F24" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="12"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="3">
@@ -1148,10 +1205,11 @@
       <c r="F25" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="12"/>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3">
@@ -1160,10 +1218,11 @@
       <c r="F26" s="3">
         <v>45670</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="12"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="3">
@@ -1172,239 +1231,262 @@
       <c r="F27" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="12"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="3">
         <v>45671</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
+        <v>45671</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="12"/>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="14">
         <v>45672</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="12"/>
-      <c r="D29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="F29" s="14">
         <v>45672</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="12"/>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3">
         <v>45672</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="12"/>
-      <c r="D30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="F30" s="3">
         <v>45672</v>
       </c>
-      <c r="F30" s="7">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="12"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>45673</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>45673</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="12"/>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>45673</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>45673</v>
       </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="13"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="7">
-        <v>45673</v>
-      </c>
-      <c r="F33" s="7">
-        <v>45673</v>
+      <c r="E33" s="6">
+        <v>45678</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45678</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>45678</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>45678</v>
       </c>
-      <c r="G34" t="s">
-        <v>113</v>
-      </c>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="12"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>45678</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>45678</v>
       </c>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="12"/>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>45679</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>45679</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="12"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>45679</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>45679</v>
       </c>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="12"/>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>45680</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>45680</v>
       </c>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="12"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>45680</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>45680</v>
       </c>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="12"/>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>45680</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>45681</v>
       </c>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="12"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>45684</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>45684</v>
       </c>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="12"/>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>45684</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>45685</v>
       </c>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="12"/>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>45685</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>45685</v>
       </c>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44" s="12"/>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>45685</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>45686</v>
       </c>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="12"/>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>45686</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>45686</v>
       </c>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="13"/>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>45687</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>45687</v>
       </c>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E47" s="1"/>
@@ -1499,11 +1581,12 @@
       <c r="F69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C34:C46"/>
     <mergeCell ref="C18:C33"/>
+    <mergeCell ref="G36:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,7 +1664,7 @@
       <c r="H6">
         <v>67</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>45992</v>
       </c>
       <c r="L6">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A088274C-97B6-438C-8CA5-0D47C9412FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358A8C8-4041-47DA-B272-3DCA67E974A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -381,14 +381,11 @@
     <t>On hold</t>
   </si>
   <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t>1215-1330,
-1345-1400</t>
-  </si>
-  <si>
-    <t>1400-1600</t>
-  </si>
-  <si>
-    <t>Remark</t>
+1345-1430</t>
   </si>
 </sst>
 </file>
@@ -529,6 +526,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,13 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -873,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,7 +882,7 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -899,11 +896,11 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -918,7 +915,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="9"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -931,7 +928,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="9"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -944,7 +941,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="9"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -957,7 +954,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -970,7 +967,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="9"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -983,7 +980,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -996,7 +993,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="9"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1006,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1024,7 +1021,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1034,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="10"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1050,7 +1047,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1060,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1073,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="10"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1086,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="10"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1099,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1117,7 +1114,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="12"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1127,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="12"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1140,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="12"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1153,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="12"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1166,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="12"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1179,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="12"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="5" t="s">
         <v>48</v>
       </c>
@@ -1195,7 +1192,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="12"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1208,7 +1205,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="12"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1218,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="12"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1231,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="12"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1247,22 +1244,22 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="12"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="14">
-        <v>45672</v>
-      </c>
-      <c r="F29" s="14">
-        <v>45672</v>
+      <c r="E29" s="9">
+        <v>45679</v>
+      </c>
+      <c r="F29" s="9">
+        <v>45679</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="12"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1272,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="12"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1285,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="12"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1301,78 +1298,76 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="13"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>45678</v>
       </c>
-      <c r="F33" s="6">
-        <v>45678</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="F33" s="9">
+        <v>45679</v>
+      </c>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="6">
-        <v>45678</v>
-      </c>
-      <c r="F34" s="6">
-        <v>45678</v>
+      <c r="E34" s="9">
+        <v>45679</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45679</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="12"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="6">
-        <v>45678</v>
-      </c>
-      <c r="F35" s="6">
-        <v>45678</v>
+      <c r="E35" s="9">
+        <v>45679</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45679</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="12"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="9">
         <v>45679</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="9">
         <v>45679</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="12"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="9">
         <v>45679</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="9">
         <v>45679</v>
       </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="12"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1385,7 +1380,7 @@
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="12"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1393,7 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="12"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="5" t="s">
         <v>110</v>
       </c>
@@ -1411,7 +1406,7 @@
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="12"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="5" t="s">
         <v>42</v>
       </c>
@@ -1424,7 +1419,7 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="12"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1432,7 @@
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="12"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1445,7 @@
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="12"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="5" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1458,7 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="12"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="5" t="s">
         <v>46</v>
       </c>
@@ -1476,7 +1471,7 @@
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C46" s="13"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="5" t="s">
         <v>47</v>
       </c>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358A8C8-4041-47DA-B272-3DCA67E974A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB6FAF-12BF-4D43-97F6-45CF4DA32070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB6FAF-12BF-4D43-97F6-45CF4DA32070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A61821-72C3-43D1-9E41-16B14DA13368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1248,11 +1248,11 @@
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="9">
-        <v>45679</v>
-      </c>
-      <c r="F29" s="9">
-        <v>45679</v>
+      <c r="E29" s="3">
+        <v>45671</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45671</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>113</v>
@@ -1305,8 +1305,8 @@
       <c r="E33" s="3">
         <v>45678</v>
       </c>
-      <c r="F33" s="9">
-        <v>45679</v>
+      <c r="F33" s="3">
+        <v>45678</v>
       </c>
       <c r="G33" s="11"/>
     </row>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A61821-72C3-43D1-9E41-16B14DA13368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16FDB3-208F-446A-976C-4601BB0A7E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Progress" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -147,12 +148,6 @@
     <t>DBT - Deep dive</t>
   </si>
   <si>
-    <t>Debugging Test</t>
-  </si>
-  <si>
-    <t>Testing with dbt-expectations</t>
-  </si>
-  <si>
     <t>Debugging with logging</t>
   </si>
   <si>
@@ -378,14 +373,43 @@
     <t>Set up and Practice</t>
   </si>
   <si>
-    <t>On hold</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
-    <t>1215-1330,
-1345-1430</t>
+    <t>int.fact_review</t>
+  </si>
+  <si>
+    <t>stg.src_review</t>
+  </si>
+  <si>
+    <t>max(review_dt) = 20th-Oct-2021</t>
+  </si>
+  <si>
+    <t>21st-oct-2021</t>
+  </si>
+  <si>
+    <t>1st sept 2021-1st oct 2021</t>
+  </si>
+  <si>
+    <t>Debugging Test and Testing with dbt-expectations:</t>
+  </si>
+  <si>
+    <t>1 - expect_table_row_count_to_equal_other_table</t>
+  </si>
+  <si>
+    <t>2 - expect_column_values_to_be_of_type</t>
+  </si>
+  <si>
+    <t>3 - expect_column_quantile_values_to_be_between</t>
+  </si>
+  <si>
+    <t>4 - expect_column_max_to_be_between</t>
+  </si>
+  <si>
+    <t>5 - expect_column_distinct_count_to_equal</t>
+  </si>
+  <si>
+    <t>6 - Debugging dbt tests and working with regex</t>
   </si>
 </sst>
 </file>
@@ -534,6 +558,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,12 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,9 +596,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -612,7 +636,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -718,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,7 +884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -868,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:G69"/>
+  <dimension ref="C2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,11 +920,11 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -915,7 +939,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="12"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -928,7 +952,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="12"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -941,7 +965,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="12"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -954,7 +978,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -967,7 +991,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -980,7 +1004,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1017,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1030,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="13" t="s">
-        <v>112</v>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1021,7 +1045,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1058,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1071,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="13"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1084,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="13"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1097,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="13"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1110,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="13"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1099,8 +1123,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="14" t="s">
-        <v>111</v>
+      <c r="C18" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>15</v>
@@ -1114,7 +1138,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="15"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1151,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="15"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1164,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="15"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1177,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="15"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1166,7 +1190,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="15"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1179,9 +1203,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="15"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3">
         <v>45666</v>
@@ -1192,7 +1216,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="15"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1205,7 +1229,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="15"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1218,7 +1242,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="15"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1255,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="15"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1268,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="15"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1254,12 +1278,10 @@
       <c r="F29" s="3">
         <v>45671</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="15"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1272,7 +1294,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="15"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1307,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="15"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1293,12 +1315,12 @@
         <v>45673</v>
       </c>
       <c r="F32" s="3">
-        <v>45673</v>
+        <v>45678</v>
       </c>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1306,252 +1328,295 @@
         <v>45678</v>
       </c>
       <c r="F33" s="3">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45681</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="17"/>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="17"/>
+      <c r="D36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="17"/>
+      <c r="D37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="17"/>
+      <c r="D38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="17"/>
+      <c r="D39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45680</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="17"/>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="9">
+        <v>45681</v>
+      </c>
+      <c r="F40" s="9">
+        <v>45681</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="17"/>
+      <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E41" s="3">
         <v>45679</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F41" s="3">
         <v>45679</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="15"/>
-      <c r="D35" s="5" t="s">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="17"/>
+      <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E42" s="3">
         <v>45679</v>
       </c>
-      <c r="F35" s="9">
-        <v>45679</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="15"/>
-      <c r="D36" s="5" t="s">
+      <c r="F42" s="3">
+        <v>45680</v>
+      </c>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="17"/>
+      <c r="D43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="9">
-        <v>45679</v>
-      </c>
-      <c r="F36" s="9">
-        <v>45679</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="15"/>
-      <c r="D37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="9">
-        <v>45679</v>
-      </c>
-      <c r="F37" s="9">
-        <v>45679</v>
-      </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="15"/>
-      <c r="D38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="6">
-        <v>45680</v>
-      </c>
-      <c r="F38" s="6">
-        <v>45680</v>
-      </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="15"/>
-      <c r="D39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="6">
-        <v>45680</v>
-      </c>
-      <c r="F39" s="6">
-        <v>45680</v>
-      </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="15"/>
-      <c r="D40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="6">
-        <v>45680</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E43" s="6">
         <v>45681</v>
-      </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="15"/>
-      <c r="D41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="6">
-        <v>45684</v>
-      </c>
-      <c r="F41" s="6">
-        <v>45684</v>
-      </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="15"/>
-      <c r="D42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="6">
-        <v>45684</v>
-      </c>
-      <c r="F42" s="6">
-        <v>45685</v>
-      </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="15"/>
-      <c r="D43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="6">
-        <v>45685</v>
       </c>
       <c r="F43" s="6">
         <v>45685</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="15"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45681</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45685</v>
+      </c>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="17"/>
+      <c r="D45" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45681</v>
+      </c>
+      <c r="F45" s="6">
+        <v>45685</v>
+      </c>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="17"/>
+      <c r="D46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="6">
+        <v>45686</v>
+      </c>
+      <c r="F46" s="6">
+        <v>45686</v>
+      </c>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="17"/>
+      <c r="D47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45686</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45686</v>
+      </c>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="17"/>
+      <c r="D48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45686</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45686</v>
+      </c>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="17"/>
+      <c r="D49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45687</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45687</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="17"/>
+      <c r="D50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45687</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45687</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="18"/>
+      <c r="D51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="6">
-        <v>45685</v>
-      </c>
-      <c r="F44" s="6">
-        <v>45686</v>
-      </c>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="15"/>
-      <c r="D45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="6">
-        <v>45686</v>
-      </c>
-      <c r="F45" s="6">
-        <v>45686</v>
-      </c>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C46" s="16"/>
-      <c r="D46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="6">
-        <v>45687</v>
-      </c>
-      <c r="F46" s="6">
-        <v>45687</v>
-      </c>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E51" s="6">
+        <v>45688</v>
+      </c>
+      <c r="F51" s="6">
+        <v>45688</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
@@ -1575,13 +1640,32 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="C34:C51"/>
     <mergeCell ref="C18:C33"/>
-    <mergeCell ref="G36:G46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,6 +1673,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639DFEE-E892-432F-B1F2-BDFC6D1C85EE}">
+  <dimension ref="E3:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C80CEB-109E-43F8-8A0C-5A9E31958CB8}">
   <dimension ref="A3:P55"/>
   <sheetViews>
@@ -1608,39 +1733,39 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1651,7 +1776,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>-45</v>
@@ -1666,10 +1791,10 @@
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1680,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>87</v>
@@ -1692,10 +1817,10 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1706,7 +1831,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>-98</v>
@@ -1715,16 +1840,16 @@
         <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1735,7 +1860,7 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9">
         <v>-34034</v>
@@ -1744,16 +1869,16 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L9">
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1766,12 +1891,12 @@
         <v>98001</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>86730</v>
@@ -1780,7 +1905,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12">
         <v>34034</v>
@@ -1789,10 +1914,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1800,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1808,18 +1933,18 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1830,7 +1955,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>-98</v>
@@ -1839,13 +1964,13 @@
         <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.35">
@@ -1859,7 +1984,7 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.35">
@@ -1867,19 +1992,19 @@
         <v>98000</v>
       </c>
       <c r="L22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" t="s">
         <v>89</v>
       </c>
-      <c r="M22" t="s">
-        <v>91</v>
-      </c>
       <c r="N22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.35">
@@ -1887,7 +2012,7 @@
         <v>98001</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L23">
         <v>6738</v>
@@ -1896,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.35">
@@ -1913,29 +2038,29 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" t="s">
         <v>93</v>
       </c>
-      <c r="O24" t="s">
-        <v>95</v>
-      </c>
       <c r="P24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1944,7 +2069,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L30" s="2">
         <v>6738</v>
@@ -1953,21 +2078,21 @@
         <v>5</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="P30" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1984,7 +2109,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.35">
@@ -2002,7 +2127,7 @@
         <v>950328</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2018,13 +2143,13 @@
         <v>5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.35">
@@ -2042,7 +2167,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>-98</v>
@@ -2051,7 +2176,7 @@
         <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.35">
@@ -2065,10 +2190,10 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.35">
@@ -2076,7 +2201,7 @@
         <v>98000</v>
       </c>
       <c r="L39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.35">
@@ -2084,76 +2209,76 @@
         <v>98001</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2168,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.35">
@@ -2190,7 +2315,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="12:16" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16FDB3-208F-446A-976C-4601BB0A7E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41705CDC-6C0D-4CF6-A09D-5C06F5A5427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -434,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,12 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -550,7 +544,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,7 +899,7 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -924,7 +917,7 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -939,7 +932,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -952,7 +945,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -965,7 +958,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -978,7 +971,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -991,7 +984,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +997,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="14"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1010,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1023,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1045,7 +1038,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1051,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1064,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1077,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1090,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="15"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1103,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="15"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1116,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1138,7 +1131,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1144,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1157,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="17"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1177,7 +1170,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="17"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1183,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="17"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1196,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="17"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1216,7 +1209,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="17"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1229,7 +1222,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1235,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1248,7 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="17"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1261,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="17"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1281,7 +1274,7 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="17"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1294,7 +1287,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="17"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1307,7 +1300,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="17"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1313,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1330,10 +1323,10 @@
       <c r="F33" s="3">
         <v>45679</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1342,13 +1335,13 @@
       <c r="E34" s="3">
         <v>45680</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="3">
         <v>45681</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="17"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="5" t="s">
         <v>118</v>
       </c>
@@ -1361,7 +1354,7 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="17"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="5" t="s">
         <v>119</v>
       </c>
@@ -1374,7 +1367,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="17"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="5" t="s">
         <v>120</v>
       </c>
@@ -1387,7 +1380,7 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="17"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="5" t="s">
         <v>121</v>
       </c>
@@ -1400,7 +1393,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="17"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="5" t="s">
         <v>122</v>
       </c>
@@ -1413,20 +1406,20 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="17"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="3">
         <v>45681</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="3">
         <v>45681</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="17"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1436,10 +1429,10 @@
       <c r="F41" s="3">
         <v>45679</v>
       </c>
-      <c r="G41" s="12"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="17"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1449,10 +1442,10 @@
       <c r="F42" s="3">
         <v>45680</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="17"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="5" t="s">
         <v>38</v>
       </c>
@@ -1462,10 +1455,10 @@
       <c r="F43" s="6">
         <v>45685</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="17"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="5" t="s">
         <v>39</v>
       </c>
@@ -1475,10 +1468,10 @@
       <c r="F44" s="6">
         <v>45685</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="17"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="5" t="s">
         <v>108</v>
       </c>
@@ -1488,10 +1481,10 @@
       <c r="F45" s="6">
         <v>45685</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C46" s="17"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="5" t="s">
         <v>40</v>
       </c>
@@ -1501,10 +1494,10 @@
       <c r="F46" s="6">
         <v>45686</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C47" s="17"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="5" t="s">
         <v>41</v>
       </c>
@@ -1514,10 +1507,10 @@
       <c r="F47" s="6">
         <v>45686</v>
       </c>
-      <c r="G47" s="13"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="5" t="s">
         <v>42</v>
       </c>
@@ -1527,10 +1520,10 @@
       <c r="F48" s="6">
         <v>45686</v>
       </c>
-      <c r="G48" s="13"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C49" s="17"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="5" t="s">
         <v>43</v>
       </c>
@@ -1540,10 +1533,10 @@
       <c r="F49" s="6">
         <v>45687</v>
       </c>
-      <c r="G49" s="13"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="17"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="5" t="s">
         <v>44</v>
       </c>
@@ -1553,10 +1546,10 @@
       <c r="F50" s="6">
         <v>45687</v>
       </c>
-      <c r="G50" s="13"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C51" s="18"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="5" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1559,7 @@
       <c r="F51" s="6">
         <v>45688</v>
       </c>
-      <c r="G51" s="13"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E52" s="1"/>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41705CDC-6C0D-4CF6-A09D-5C06F5A5427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD96633-4FEE-417C-82E3-8B234A27A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -154,21 +154,9 @@
     <t>Using Variables</t>
   </si>
   <si>
-    <t>DBT Orchestration</t>
-  </si>
-  <si>
-    <t>Popular orchestration tool</t>
-  </si>
-  <si>
-    <t>Accelerate dbt Development using power user for dbt core</t>
-  </si>
-  <si>
     <t>Best Practices for dbt in production environment</t>
   </si>
   <si>
-    <t xml:space="preserve">DBT live production projects overview </t>
-  </si>
-  <si>
     <t>Exercise for completing new dbt project</t>
   </si>
   <si>
@@ -364,18 +352,12 @@
     <t xml:space="preserve">    merge_update_columns = ['email', 'ip_address'],</t>
   </si>
   <si>
-    <t>Dagster orchestration toll</t>
-  </si>
-  <si>
     <t>DBT Core - Topics</t>
   </si>
   <si>
     <t>Set up and Practice</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>int.fact_review</t>
   </si>
   <si>
@@ -410,6 +392,21 @@
   </si>
   <si>
     <t>6 - Debugging dbt tests and working with regex</t>
+  </si>
+  <si>
+    <t>Overview of orchestration jobs</t>
+  </si>
+  <si>
+    <t>Overview of Popular orchestration tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBT live production project overview </t>
+  </si>
+  <si>
+    <t>DBT cloud - migrating project and scheduling jobs</t>
+  </si>
+  <si>
+    <t>Dbt orchestration with airflow</t>
   </si>
 </sst>
 </file>
@@ -466,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -489,48 +486,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -541,35 +501,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:G74"/>
+  <dimension ref="C2:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,7 +840,7 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -912,12 +853,9 @@
       <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="13" t="s">
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -929,10 +867,9 @@
       <c r="F3" s="3">
         <v>45663</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="13"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -942,10 +879,9 @@
       <c r="F4" s="3">
         <v>45663</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="13"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -955,10 +891,9 @@
       <c r="F5" s="3">
         <v>45663</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="13"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -968,10 +903,9 @@
       <c r="F6" s="3">
         <v>45663</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="13"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -981,10 +915,9 @@
       <c r="F7" s="3">
         <v>45663</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="13"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -994,10 +927,9 @@
       <c r="F8" s="3">
         <v>45663</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="13"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1007,10 +939,9 @@
       <c r="F9" s="3">
         <v>45663</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="13"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1020,11 +951,10 @@
       <c r="F10" s="3">
         <v>45663</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="14" t="s">
-        <v>110</v>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1035,10 +965,9 @@
       <c r="F11" s="3">
         <v>45664</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="14"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1048,10 +977,9 @@
       <c r="F12" s="3">
         <v>45663</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="14"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1061,10 +989,9 @@
       <c r="F13" s="3">
         <v>45664</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="14"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1074,10 +1001,9 @@
       <c r="F14" s="3">
         <v>45664</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="14"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1087,10 +1013,9 @@
       <c r="F15" s="3">
         <v>45664</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="14"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="12"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1100,10 +1025,9 @@
       <c r="F16" s="3">
         <v>45664</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="14"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1113,11 +1037,10 @@
       <c r="F17" s="3">
         <v>45664</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
-        <v>109</v>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>15</v>
@@ -1128,10 +1051,9 @@
       <c r="F18" s="3">
         <v>45665</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="16"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="11"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1141,10 +1063,9 @@
       <c r="F19" s="3">
         <v>45665</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="16"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1154,10 +1075,9 @@
       <c r="F20" s="3">
         <v>45665</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="16"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="11"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1167,10 +1087,9 @@
       <c r="F21" s="3">
         <v>45666</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="16"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1099,9 @@
       <c r="F22" s="3">
         <v>45666</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="16"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="11"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1193,12 +1111,11 @@
       <c r="F23" s="3">
         <v>45666</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="16"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3">
         <v>45666</v>
@@ -1206,10 +1123,9 @@
       <c r="F24" s="3">
         <v>45666</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="16"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="11"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1219,10 +1135,9 @@
       <c r="F25" s="3">
         <v>45671</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="16"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1232,10 +1147,9 @@
       <c r="F26" s="3">
         <v>45670</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="16"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="11"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1245,10 +1159,9 @@
       <c r="F27" s="3">
         <v>45671</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="16"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1258,10 +1171,9 @@
       <c r="F28" s="3">
         <v>45671</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="16"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1271,10 +1183,9 @@
       <c r="F29" s="3">
         <v>45671</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="16"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1284,10 +1195,9 @@
       <c r="F30" s="3">
         <v>45672</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="16"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1297,10 +1207,9 @@
       <c r="F31" s="3">
         <v>45673</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="16"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1310,10 +1219,9 @@
       <c r="F32" s="3">
         <v>45678</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="17"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1323,14 +1231,13 @@
       <c r="F33" s="3">
         <v>45679</v>
       </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="15" t="s">
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E34" s="3">
         <v>45680</v>
@@ -1338,12 +1245,11 @@
       <c r="F34" s="3">
         <v>45681</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="16"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
       <c r="D35" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E35" s="3">
         <v>45680</v>
@@ -1351,12 +1257,11 @@
       <c r="F35" s="3">
         <v>45680</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="16"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E36" s="3">
         <v>45680</v>
@@ -1364,12 +1269,11 @@
       <c r="F36" s="3">
         <v>45680</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="16"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E37" s="3">
         <v>45680</v>
@@ -1377,12 +1281,11 @@
       <c r="F37" s="3">
         <v>45680</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="16"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="11"/>
       <c r="D38" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E38" s="3">
         <v>45680</v>
@@ -1390,12 +1293,11 @@
       <c r="F38" s="3">
         <v>45680</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="16"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E39" s="3">
         <v>45680</v>
@@ -1403,12 +1305,11 @@
       <c r="F39" s="3">
         <v>45680</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="16"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3">
         <v>45681</v>
@@ -1416,10 +1317,9 @@
       <c r="F40" s="3">
         <v>45681</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="16"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="11"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1429,10 +1329,9 @@
       <c r="F41" s="3">
         <v>45679</v>
       </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="16"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1442,116 +1341,107 @@
       <c r="F42" s="3">
         <v>45680</v>
       </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="16"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="6">
+        <v>118</v>
+      </c>
+      <c r="E43" s="3">
         <v>45681</v>
       </c>
-      <c r="F43" s="6">
-        <v>45685</v>
-      </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="16"/>
+      <c r="F43" s="3">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="6">
+        <v>119</v>
+      </c>
+      <c r="E44" s="3">
         <v>45681</v>
       </c>
-      <c r="F44" s="6">
-        <v>45685</v>
-      </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="16"/>
+      <c r="F44" s="3">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="6">
+        <v>120</v>
+      </c>
+      <c r="E45" s="3">
         <v>45681</v>
       </c>
-      <c r="F45" s="6">
-        <v>45685</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C46" s="16"/>
+      <c r="F45" s="3">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45684</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C47" s="11"/>
+      <c r="D47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="6">
-        <v>45686</v>
-      </c>
-      <c r="F46" s="6">
-        <v>45686</v>
-      </c>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C47" s="16"/>
-      <c r="D47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="6">
-        <v>45686</v>
+      <c r="E47" s="3">
+        <v>45684</v>
       </c>
       <c r="F47" s="6">
         <v>45686</v>
       </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C48" s="16"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="6">
-        <v>45686</v>
+        <v>39</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45684</v>
       </c>
       <c r="F48" s="6">
         <v>45686</v>
       </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C49" s="16"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E49" s="6">
-        <v>45687</v>
+        <v>45685</v>
       </c>
       <c r="F49" s="6">
-        <v>45687</v>
-      </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C50" s="16"/>
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E50" s="6">
-        <v>45687</v>
+        <v>45686</v>
       </c>
       <c r="F50" s="6">
         <v>45687</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C51" s="17"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E51" s="6">
         <v>45688</v>
@@ -1559,57 +1449,77 @@
       <c r="F51" s="6">
         <v>45688</v>
       </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
@@ -1648,17 +1558,13 @@
     <row r="73" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C33"/>
     <mergeCell ref="C34:C51"/>
-    <mergeCell ref="C18:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1682,23 +1588,23 @@
   <sheetData>
     <row r="3" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1726,39 +1632,39 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1769,7 +1675,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>-45</v>
@@ -1784,10 +1690,10 @@
         <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1798,7 +1704,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>87</v>
@@ -1810,10 +1716,10 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1824,7 +1730,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>-98</v>
@@ -1833,16 +1739,16 @@
         <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L8">
         <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1853,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>-34034</v>
@@ -1862,16 +1768,16 @@
         <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1884,12 +1790,12 @@
         <v>98001</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>86730</v>
@@ -1898,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>34034</v>
@@ -1907,10 +1813,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1918,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1926,18 +1832,18 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1948,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>-98</v>
@@ -1957,13 +1863,13 @@
         <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.35">
@@ -1977,7 +1883,7 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.35">
@@ -1985,19 +1891,19 @@
         <v>98000</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N22" t="s">
+        <v>84</v>
+      </c>
+      <c r="O22" t="s">
         <v>88</v>
       </c>
-      <c r="O22" t="s">
-        <v>92</v>
-      </c>
       <c r="P22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.35">
@@ -2005,7 +1911,7 @@
         <v>98001</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L23">
         <v>6738</v>
@@ -2014,13 +1920,13 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.35">
@@ -2031,29 +1937,29 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L28" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2062,7 +1968,7 @@
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L30" s="2">
         <v>6738</v>
@@ -2071,21 +1977,21 @@
         <v>5</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2102,7 +2008,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.35">
@@ -2120,7 +2026,7 @@
         <v>950328</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2136,13 +2042,13 @@
         <v>5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.35">
@@ -2160,7 +2066,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>-98</v>
@@ -2169,7 +2075,7 @@
         <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.35">
@@ -2183,10 +2089,10 @@
         <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="4:16" x14ac:dyDescent="0.35">
@@ -2194,7 +2100,7 @@
         <v>98000</v>
       </c>
       <c r="L39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="4:16" x14ac:dyDescent="0.35">
@@ -2202,76 +2108,76 @@
         <v>98001</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
         <v>77</v>
       </c>
-      <c r="G44" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" t="s">
-        <v>81</v>
-      </c>
       <c r="L44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="4:16" x14ac:dyDescent="0.35">
       <c r="L45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
         <v>78</v>
       </c>
-      <c r="G47" t="s">
-        <v>82</v>
-      </c>
       <c r="L47" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="4:16" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2286,13 +2192,13 @@
         <v>5</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="12:16" x14ac:dyDescent="0.35">
@@ -2308,7 +2214,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="12:16" x14ac:dyDescent="0.35">

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD96633-4FEE-417C-82E3-8B234A27A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69217F6-D55B-48B2-9433-F3B9045D27CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -407,6 +407,72 @@
   </si>
   <si>
     <t>Dbt orchestration with airflow</t>
+  </si>
+  <si>
+    <t>dbt show</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>--store-failures</t>
+  </si>
+  <si>
+    <t>dbt run</t>
+  </si>
+  <si>
+    <t>dbt test</t>
+  </si>
+  <si>
+    <t>dbt debug</t>
+  </si>
+  <si>
+    <t>dbt init</t>
+  </si>
+  <si>
+    <t>dbt deps</t>
+  </si>
+  <si>
+    <t>dbt build</t>
+  </si>
+  <si>
+    <t>dbt compile</t>
+  </si>
+  <si>
+    <t>dbt snapshot</t>
+  </si>
+  <si>
+    <t>dbt seeds</t>
+  </si>
+  <si>
+    <t>dbt docs generate</t>
+  </si>
+  <si>
+    <t>dbt run -m tag:imp --exclude src_listings</t>
+  </si>
+  <si>
+    <t>dbt run -m tag:imp</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/big-data/create-a-modern-data-platform-using-the-data-build-tool-dbt-in-the-aws-cloud/</t>
+  </si>
+  <si>
+    <t>dbt clean</t>
+  </si>
+  <si>
+    <t>dbt source freshness</t>
+  </si>
+  <si>
+    <t>desription in comment</t>
+  </si>
+  <si>
+    <t>Dbt orchestration with aws batch</t>
+  </si>
+  <si>
+    <t>azure synapse</t>
   </si>
 </sst>
 </file>
@@ -416,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +496,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262A38"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF2568BE"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -512,6 +596,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
-  <dimension ref="C2:H73"/>
+  <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,6 +929,7 @@
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -1026,7 +1118,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
@@ -1038,7 +1130,7 @@
         <v>45664</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="11" t="s">
         <v>104</v>
       </c>
@@ -1051,8 +1143,11 @@
       <c r="F18" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="11"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
@@ -1063,8 +1158,14 @@
       <c r="F19" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
@@ -1075,8 +1176,11 @@
       <c r="F20" s="3">
         <v>45665</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="11"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
@@ -1087,8 +1191,11 @@
       <c r="F21" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
@@ -1099,8 +1206,11 @@
       <c r="F22" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C23" s="11"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
@@ -1111,8 +1221,11 @@
       <c r="F23" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="11"/>
       <c r="D24" s="5" t="s">
         <v>42</v>
@@ -1123,8 +1236,11 @@
       <c r="F24" s="3">
         <v>45666</v>
       </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="11"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
@@ -1135,8 +1251,12 @@
       <c r="F25" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="I25" s="13"/>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
@@ -1147,8 +1267,12 @@
       <c r="F26" s="3">
         <v>45670</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="I26" s="13"/>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="11"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
@@ -1159,8 +1283,11 @@
       <c r="F27" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
@@ -1171,8 +1298,12 @@
       <c r="F28" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="H28" s="14"/>
+      <c r="K28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
@@ -1183,8 +1314,11 @@
       <c r="F29" s="3">
         <v>45671</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
@@ -1195,8 +1329,11 @@
       <c r="F30" s="3">
         <v>45672</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
@@ -1207,8 +1344,11 @@
       <c r="F31" s="3">
         <v>45673</v>
       </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
@@ -1219,8 +1359,11 @@
       <c r="F32" s="3">
         <v>45678</v>
       </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
@@ -1231,8 +1374,11 @@
       <c r="F33" s="3">
         <v>45679</v>
       </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
@@ -1245,8 +1391,11 @@
       <c r="F34" s="3">
         <v>45681</v>
       </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="K34" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C35" s="11"/>
       <c r="D35" s="5" t="s">
         <v>112</v>
@@ -1258,7 +1407,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
         <v>113</v>
@@ -1270,7 +1419,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
         <v>114</v>
@@ -1282,7 +1431,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C38" s="11"/>
       <c r="D38" s="5" t="s">
         <v>115</v>
@@ -1294,7 +1443,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
         <v>116</v>
@@ -1306,7 +1455,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
         <v>117</v>
@@ -1318,7 +1467,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C41" s="11"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
@@ -1330,7 +1479,7 @@
         <v>45679</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
@@ -1342,7 +1491,7 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
@@ -1354,7 +1503,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C44" s="11"/>
       <c r="D44" s="5" t="s">
         <v>119</v>
@@ -1366,7 +1515,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
         <v>120</v>
@@ -1378,7 +1527,7 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C46" s="11"/>
       <c r="D46" s="5" t="s">
         <v>121</v>
@@ -1390,7 +1539,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C47" s="11"/>
       <c r="D47" s="5" t="s">
         <v>40</v>
@@ -1398,11 +1547,11 @@
       <c r="E47" s="3">
         <v>45684</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>45686</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C48" s="11"/>
       <c r="D48" s="5" t="s">
         <v>39</v>
@@ -1410,7 +1559,7 @@
       <c r="E48" s="3">
         <v>45684</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="17">
         <v>45686</v>
       </c>
     </row>
@@ -1419,10 +1568,10 @@
       <c r="D49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="3">
         <v>45685</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>45685</v>
       </c>
     </row>
@@ -1459,11 +1608,17 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D53" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D54" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="H54" s="9"/>
@@ -1474,6 +1629,9 @@
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D56" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="H56" s="9"/>
@@ -1560,11 +1718,12 @@
       <c r="F73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C33"/>
     <mergeCell ref="C34:C51"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639DFEE-E892-432F-B1F2-BDFC6D1C85EE}">
-  <dimension ref="E3:I5"/>
+  <dimension ref="A3:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,7 +1745,7 @@
     <col min="9" max="9" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>107</v>
       </c>
@@ -1594,17 +1753,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Dbt_Course_Plan.xlsx
+++ b/Dbt_Course_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dictm382\course\dbt_training_jan2025_resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69217F6-D55B-48B2-9433-F3B9045D27CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB3736-08AC-49B6-B0BE-E2FC2858C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE97E018-884B-4632-8AE2-90334E5403C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
   <si>
     <t>Course Introductoin</t>
   </si>
@@ -463,16 +463,67 @@
     <t>dbt clean</t>
   </si>
   <si>
-    <t>dbt source freshness</t>
-  </si>
-  <si>
     <t>desription in comment</t>
   </si>
   <si>
     <t>Dbt orchestration with aws batch</t>
   </si>
   <si>
-    <t>azure synapse</t>
+    <t>dbt source fresheness</t>
+  </si>
+  <si>
+    <t>dbt run --empty</t>
+  </si>
+  <si>
+    <t>dbt cloud -&gt; managing</t>
+  </si>
+  <si>
+    <t>airflow, dagster, apache batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm -&gt; ec2 -&gt; deploy your docker image </t>
+  </si>
+  <si>
+    <t>ecr</t>
+  </si>
+  <si>
+    <t>dagster</t>
+  </si>
+  <si>
+    <t>airbnb</t>
+  </si>
+  <si>
+    <t>s3 bucket</t>
+  </si>
+  <si>
+    <t>raw schema snowflake</t>
+  </si>
+  <si>
+    <t>stg</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>dwh</t>
+  </si>
+  <si>
+    <t>dbt</t>
+  </si>
+  <si>
+    <t>dashboard, exposure</t>
+  </si>
+  <si>
+    <t>orchaestration -&gt; airflow</t>
+  </si>
+  <si>
+    <t>dbt cloud</t>
+  </si>
+  <si>
+    <t>Important DBT commands</t>
+  </si>
+  <si>
+    <t>to check what all dbt models will run without loading the data</t>
   </si>
 </sst>
 </file>
@@ -482,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,14 +553,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF2568BE"/>
-      <name val="Roboto Mono"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,18 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -583,13 +616,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -599,10 +634,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3C56AF-FE1B-4AB0-AF24-A78F8F9A772B}">
   <dimension ref="C2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,9 +964,10 @@
     <col min="5" max="6" width="12.6328125" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
@@ -947,7 +982,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -961,7 +996,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -973,7 +1008,7 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
@@ -985,7 +1020,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="11"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1032,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1044,7 @@
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="11"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1056,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1068,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1080,7 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1059,7 +1094,7 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1118,7 @@
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1130,7 @@
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1142,7 @@
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1154,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1129,9 +1164,12 @@
       <c r="F17" s="3">
         <v>45664</v>
       </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1148,7 +1186,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1161,12 +1199,12 @@
       <c r="K19" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1219,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1234,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="11"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1249,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="11"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1264,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1279,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="11"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1251,13 +1289,13 @@
       <c r="F25" s="3">
         <v>45671</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="15"/>
       <c r="K25" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="11"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
@@ -1267,13 +1305,13 @@
       <c r="F26" s="3">
         <v>45670</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="15"/>
       <c r="K26" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C27" s="11"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1288,7 +1326,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C28" s="11"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1298,13 +1336,13 @@
       <c r="F28" s="3">
         <v>45671</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="10"/>
       <c r="K28" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1357,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1372,7 @@
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1387,7 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C32" s="11"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1363,8 +1401,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="11"/>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C33" s="13"/>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1378,8 +1416,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C34" s="11" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C34" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1391,12 +1429,12 @@
       <c r="F34" s="3">
         <v>45681</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="11"/>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="13"/>
       <c r="D35" s="5" t="s">
         <v>112</v>
       </c>
@@ -1406,9 +1444,15 @@
       <c r="F35" s="3">
         <v>45680</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="11"/>
+      <c r="K35" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C36" s="13"/>
       <c r="D36" s="5" t="s">
         <v>113</v>
       </c>
@@ -1419,8 +1463,8 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="11"/>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C37" s="13"/>
       <c r="D37" s="5" t="s">
         <v>114</v>
       </c>
@@ -1431,8 +1475,8 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C38" s="11"/>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C38" s="13"/>
       <c r="D38" s="5" t="s">
         <v>115</v>
       </c>
@@ -1443,8 +1487,8 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="11"/>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C39" s="13"/>
       <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
@@ -1455,8 +1499,8 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C40" s="11"/>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C40" s="13"/>
       <c r="D40" s="5" t="s">
         <v>117</v>
       </c>
@@ -1467,8 +1511,8 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C41" s="11"/>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C41" s="13"/>
       <c r="D41" s="5" t="s">
         <v>36</v>
       </c>
@@ -1479,8 +1523,8 @@
         <v>45679</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C42" s="11"/>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C42" s="13"/>
       <c r="D42" s="5" t="s">
         <v>37</v>
       </c>
@@ -1491,8 +1535,8 @@
         <v>45680</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C43" s="11"/>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C43" s="13"/>
       <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
@@ -1503,8 +1547,8 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C44" s="11"/>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C44" s="13"/>
       <c r="D44" s="5" t="s">
         <v>119</v>
       </c>
@@ -1515,8 +1559,8 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C45" s="11"/>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C45" s="13"/>
       <c r="D45" s="5" t="s">
         <v>120</v>
       </c>
@@ -1527,8 +1571,8 @@
         <v>45681</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C46" s="11"/>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C46" s="13"/>
       <c r="D46" s="5" t="s">
         <v>121</v>
       </c>
@@ -1539,8 +1583,8 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C47" s="11"/>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C47" s="13"/>
       <c r="D47" s="5" t="s">
         <v>40</v>
       </c>
@@ -1551,20 +1595,20 @@
         <v>45686</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C48" s="11"/>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C48" s="13"/>
       <c r="D48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="3">
         <v>45684</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="3">
         <v>45686</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C49" s="11"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="5" t="s">
         <v>38</v>
       </c>
@@ -1576,106 +1620,103 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C50" s="11"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="3">
         <v>45686</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>45687</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C51" s="11"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="3">
         <v>45688</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>45688</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="1"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="H53" s="9"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D54" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="1"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D56" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E64" s="1"/>
@@ -1732,16 +1773,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639DFEE-E892-432F-B1F2-BDFC6D1C85EE}">
-  <dimension ref="A3:I8"/>
+  <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A8" zoomScale="123" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1771,7 +1812,75 @@
         <v>139</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H16" s="16"/>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H14:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1847,7 +1956,7 @@
       <c r="H6">
         <v>67</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>45992</v>
       </c>
       <c r="L6">
